--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.893730324430364</v>
+        <v>1.328558632615739</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-1.61188520630966</v>
+        <v>-1.435981453719049</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.8256244756900011</v>
+        <v>-0.7704417043119083</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>1.128600547465064</v>
+        <v>0.406633294022174</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.813262858385434</v>
+        <v>-0.1034614224434405</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>2.397632938760519</v>
+        <v>2.185496833134781</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>2.168477229273624</v>
+        <v>0.6652762968575532</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.5991205513815823</v>
+        <v>0.8574941660507873</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.08005015963426</v>
+        <v>1.693469135756587</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.5555179840670776</v>
+        <v>0.1494732105682406</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.876770729193722</v>
+        <v>0.8024032015999882</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.749602965204744</v>
+        <v>1.656936590801972</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.817887133274421</v>
+        <v>0.922773818606859</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.513781691628258</v>
+        <v>1.346932828201242</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.740574921258409</v>
+        <v>1.364302026343633</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.72540577912379</v>
+        <v>1.745747589686109</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.807349526896274</v>
+        <v>1.644798626926303</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.026192376700298</v>
+        <v>1.843649045891893</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.115367468044549</v>
+        <v>1.741128155516525</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.31852959217409</v>
+        <v>2.463589365374652</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.811228693949229</v>
+        <v>2.149194501693219</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.001446656562432</v>
+        <v>1.332860091726285</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.9535061289851043</v>
+        <v>1.799885362733189</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-4.378957680654993</v>
+        <v>0.2336391425753925</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>4.711619913745535</v>
+        <v>0.9207450904090253</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.010673730825384</v>
+        <v>-2.010709456685855</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>5.41299470703982</v>
+        <v>-1.14257141002756</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.906776630685214</v>
+        <v>1.5286818008164</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.996132459072443</v>
+        <v>-0.7118141543333012</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.006131358757832661</v>
+        <v>0.001079933351455509</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.257115842174117</v>
+        <v>0.6889047703476203</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.09179388078603967</v>
+        <v>-0.00209793826797533</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.580446709939154</v>
+        <v>0.286657616500996</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5151080441973876</v>
+        <v>0.501314651583451</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.9526646531309746</v>
+        <v>0.2155158706220295</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>2.740959689118805</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>1.328558632615739</v>
+        <v>3.206168778303486</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-1.435981453719049</v>
+        <v>-5.478010998490157</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.7704417043119083</v>
+        <v>-2.013762956649334</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.406633294022174</v>
+        <v>-0.1091898317121864</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-0.1034614224434405</v>
+        <v>-1.305195642355683</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>2.185496833134781</v>
+        <v>3.371423250978856</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.6652762968575532</v>
+        <v>0.8060632160631576</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.8574941660507873</v>
+        <v>1.627570629117536</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.693469135756587</v>
+        <v>2.766358213445708</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.1494732105682406</v>
+        <v>-0.03183655677961861</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.8024032015999882</v>
+        <v>1.102200073559878</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.656936590801972</v>
+        <v>1.812248956008733</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.922773818606859</v>
+        <v>1.209672013646323</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.346932828201242</v>
+        <v>1.290465392296114</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.364302026343633</v>
+        <v>0.9879295308886871</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.745747589686109</v>
+        <v>1.57569012346459</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.644798626926303</v>
+        <v>1.643656926428561</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.843649045891893</v>
+        <v>1.73823635068906</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.741128155516525</v>
+        <v>1.765380623247137</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.463589365374652</v>
+        <v>2.337818484846466</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.149194501693219</v>
+        <v>2.076648015684435</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.332860091726285</v>
+        <v>0.8311911554373719</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.799885362733189</v>
+        <v>1.758956425699298</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.2336391425753925</v>
+        <v>-1.538034740964334</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.9207450904090253</v>
+        <v>-0.7351085756681308</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-2.010709456685855</v>
+        <v>0.303920243687994</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-1.14257141002756</v>
+        <v>-0.6038293380915438</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.5286818008164</v>
+        <v>1.91914784107321</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.7118141543333012</v>
+        <v>0.2384815980940092</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.001079933351455509</v>
+        <v>-0.1211988132392205</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.6889047703476203</v>
+        <v>0.7707080878861294</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.00209793826797533</v>
+        <v>-0.04760886976447054</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.286657616500996</v>
+        <v>0.5568966348730831</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.501314651583451</v>
+        <v>0.1245593350339691</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.2155158706220295</v>
+        <v>0.1722027100061974</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>0.303920243687994</v>
+        <v>-0.5490727792360373</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.6038293380915438</v>
+        <v>-1.780432496308937</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.91914784107321</v>
+        <v>1.6875728718037</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.2384815980940092</v>
+        <v>-0.1326041962933178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.1211988132392205</v>
+        <v>-0.0288046953595078</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.7707080878861294</v>
+        <v>0.9887944371492985</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.04760886976447054</v>
+        <v>-0.1645795020818852</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.5568966348730831</v>
+        <v>0.2574142441027938</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.1245593350339691</v>
+        <v>0.06409464788887931</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.1722027100061974</v>
+        <v>-0.06354501920059485</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>2.740959689118805</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
@@ -440,7 +437,7 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-5.478010998490157</v>
+        <v>-5.478010998490146</v>
       </c>
       <c r="D3">
         <v>2010</v>
@@ -463,7 +460,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-1.305195642355683</v>
+        <v>-1.305195642355672</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>3.371423250978856</v>
+        <v>3.371423250978833</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.8060632160631576</v>
+        <v>0.806063216063202</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,7 +494,7 @@
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>2.766358213445708</v>
+        <v>2.76635821344573</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.03183655677961861</v>
+        <v>-0.03183655677960751</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.102200073559878</v>
+        <v>1.102200073559856</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.812248956008733</v>
+        <v>1.812248956008777</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.209672013646323</v>
+        <v>1.209672013646301</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -559,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.57569012346459</v>
+        <v>1.575690123464613</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.643656926428561</v>
+        <v>1.643656926428538</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -593,7 +590,7 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.337818484846466</v>
+        <v>2.337818484846443</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -610,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>0.8311911554373719</v>
+        <v>0.8311911554373275</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.758956425699298</v>
+        <v>1.758956425699276</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-1.538034740964334</v>
+        <v>-1.538034740964356</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.7351085756681308</v>
+        <v>-0.7351085756681197</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.5490727792360373</v>
+        <v>-0.5490727792360039</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -661,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.6875728718037</v>
+        <v>1.687572871803722</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -678,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.0288046953595078</v>
+        <v>-0.02880469535951891</v>
       </c>
       <c r="D17">
         <v>2024</v>
@@ -695,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.1645795020818852</v>
+        <v>-0.1645795020818963</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.2574142441027938</v>
+        <v>0.2574142441027716</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.06409464788887931</v>
+        <v>0.06409464788890151</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.06354501920059485</v>
+        <v>-0.06354501920062816</v>
       </c>
     </row>
   </sheetData>
